--- a/genshin/431386523804789635_2020-09-05_12-00-02.xlsx
+++ b/genshin/431386523804789635_2020-09-05_12-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:49:16</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11754629629</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-26 12:37:38</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44100.52613425926</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-19 23:45:02</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44093.98960648148</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -768,10 +778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:50:00</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44088.90972222222</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -835,10 +843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-14 06:24:46</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44088.26719907407</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -910,10 +916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-13 11:14:15</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44087.46822916667</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -981,10 +985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:26:35</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44086.97679398148</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1056,10 +1058,8 @@
           <t>3485560087</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:29:36</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44086.93722222222</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1123,10 +1123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:09:07</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44086.88133101852</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1190,10 +1188,8 @@
           <t>3458076456</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:29:04</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44086.77018518518</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1261,10 +1257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-11 19:13:11</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44085.80082175926</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1340,10 +1334,8 @@
           <t>3457458929</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-11 17:19:47</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44085.72207175926</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1407,10 +1399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-10 08:01:05</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44084.33408564814</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1482,10 +1472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-08 15:25:35</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44082.6427662037</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1553,10 +1541,8 @@
           <t>3469081210</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-08 13:15:49</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44082.55265046296</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1620,10 +1606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:09:31</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44081.54827546296</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1691,10 +1675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-07 08:35:18</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44081.35784722222</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1758,10 +1740,8 @@
           <t>3457161030</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-07 07:25:54</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44081.30965277777</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1829,10 +1809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:26:08</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44080.97648148148</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1900,10 +1878,8 @@
           <t>3458749835</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:18:51</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44080.97142361111</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1979,10 +1955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:12:08</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44080.75842592592</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2054,10 +2028,8 @@
           <t>3462846026</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:53:38</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44080.7455787037</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2125,10 +2097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:49:09</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44080.74246527778</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2200,10 +2170,8 @@
           <t>3462750011</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:27:18</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44080.72729166667</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2271,10 +2239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:20:45</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44080.72274305556</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2342,10 +2308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:39:12</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44080.65222222222</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2405,10 +2369,8 @@
           <t>3462365323</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:38:51</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44080.65197916667</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2469,10 +2431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-06 12:41:23</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44080.52873842593</v>
       </c>
       <c r="I29" t="n">
         <v>8</v>
@@ -2544,10 +2504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-06 11:22:38</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44080.47405092593</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2623,10 +2581,8 @@
           <t>3461185908</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-06 10:31:34</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44080.43858796296</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2702,10 +2658,8 @@
           <t>3461167788</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-06 10:25:13</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44080.43417824074</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2769,10 +2723,8 @@
           <t>3461166837</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-06 10:24:24</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44080.43361111111</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2844,10 +2796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-06 09:41:01</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44080.4034837963</v>
       </c>
       <c r="I34" t="n">
         <v>6</v>
@@ -2923,10 +2873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-06 08:31:46</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44080.35539351852</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2998,10 +2946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-06 04:49:37</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44080.20112268518</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3065,10 +3011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-06 01:29:18</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44080.06201388889</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3128,10 +3072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-06 00:24:01</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44080.01667824074</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3207,10 +3149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-06 00:16:53</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44080.01172453703</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3274,10 +3214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-06 00:14:34</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44080.01011574074</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3341,10 +3279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-06 00:03:14</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44080.00224537037</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3408,10 +3344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-05 23:56:44</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44079.99773148148</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3487,10 +3421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-05 23:55:17</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44079.99672453704</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3550,10 +3482,8 @@
           <t>3457333954</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-05 23:38:11</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44079.98484953704</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3613,10 +3543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-05 23:10:14</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44079.96543981481</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3688,10 +3616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-05 22:53:19</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44079.95369212963</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3755,10 +3681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-05 22:50:59</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44079.95207175926</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3822,10 +3746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-05 22:41:40</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44079.94560185185</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3893,10 +3815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-05 21:55:26</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44079.91349537037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3956,10 +3876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-05 21:37:09</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44079.90079861111</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4036,10 +3954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-05 21:35:03</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44079.89934027778</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4110,10 +4026,8 @@
           <t>3459299488</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-05 21:15:58</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44079.88608796296</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4189,10 +4103,8 @@
           <t>3457344955</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-05 21:11:59</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44079.88332175926</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4268,10 +4180,8 @@
           <t>3457344955</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-05 20:53:05</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44079.87019675926</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4339,10 +4249,8 @@
           <t>3459196846</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-05 20:51:38</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44079.86918981482</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4414,10 +4322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-05 20:32:32</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44079.85592592593</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4489,10 +4395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-05 20:24:38</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44079.85043981481</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4568,10 +4472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-05 20:24:37</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44079.85042824074</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4643,10 +4545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-05 19:37:05</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44079.81741898148</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4714,10 +4614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-05 19:26:42</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44079.81020833334</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4793,10 +4691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-05 19:25:27</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44079.80934027778</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4872,10 +4768,8 @@
           <t>3458799294</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-05 19:22:57</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44079.80760416666</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4935,10 +4829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-05 19:21:51</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44079.80684027778</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4998,10 +4890,8 @@
           <t>3458749835</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-05 19:13:10</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44079.80081018519</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5077,10 +4967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-05 19:08:03</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44079.79725694445</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5152,10 +5040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:57:50</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44079.79016203704</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5215,10 +5101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:57:11</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44079.78971064815</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5294,10 +5178,8 @@
           <t>3458659232</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:52:41</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44079.78658564815</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5369,10 +5251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:29:23</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44079.77040509259</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5444,10 +5324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:15:04</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44079.76046296296</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5523,10 +5401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:14:15</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44079.75989583333</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5602,10 +5478,8 @@
           <t>3458475646</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:12:21</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44079.75857638889</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5669,10 +5543,8 @@
           <t>3457580072</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:09:08</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44079.75634259259</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5740,10 +5612,8 @@
           <t>3458475646</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:08:51</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44079.75614583334</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5811,10 +5681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:06:58</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44079.75483796297</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5874,10 +5742,8 @@
           <t>3457253092</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:52:14</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44079.74460648148</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5956,10 +5822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:48:54</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44079.74229166667</v>
       </c>
       <c r="I77" t="n">
         <v>5</v>
@@ -6035,10 +5899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:46:48</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44079.74083333334</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6110,10 +5972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:41:37</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44079.7372337963</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6177,10 +6037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:28:26</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44079.7280787037</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6252,10 +6110,8 @@
           <t>3458276880</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:23:24</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44079.72458333334</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6323,10 +6179,8 @@
           <t>3458285341</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:23:11</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44079.72443287037</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6402,10 +6256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:20:35</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44079.72262731481</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6469,10 +6321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:15:28</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44079.71907407408</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6540,10 +6390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:07:54</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44079.71381944444</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6619,10 +6467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:07:54</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44079.71381944444</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6690,10 +6536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-05 17:05:42</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44079.71229166666</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6765,10 +6609,8 @@
           <t>3457224965</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:57:01</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44079.70626157407</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6836,10 +6678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:53:09</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44079.70357638889</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6903,10 +6743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:52:29</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44079.70311342592</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6978,10 +6816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:49:00</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44079.70069444444</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7049,10 +6885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:48:31</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44079.7003587963</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7129,10 +6963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:43:45</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44079.69704861111</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7209,10 +7041,8 @@
           <t>3457294262</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:40:55</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44079.69508101852</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7288,10 +7118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:38:40</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44079.69351851852</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7359,10 +7187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:36:04</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44079.69171296297</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7426,10 +7252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:32:10</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44079.68900462963</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7501,10 +7325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:31:51</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44079.68878472222</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7576,10 +7398,8 @@
           <t>3458081583</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:29:37</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44079.6872337963</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7648,10 +7468,8 @@
           <t>3458076456</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:27:50</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44079.68599537037</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7719,10 +7537,8 @@
           <t>3458071808</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:27:10</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44079.68553240741</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7790,10 +7606,8 @@
           <t>3458064992</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:26:36</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44079.68513888889</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7865,10 +7679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:26:13</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44079.68487268518</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7932,10 +7744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:25:48</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44079.68458333334</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8007,10 +7817,8 @@
           <t>3458062108</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:24:04</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44079.68337962963</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8070,10 +7878,8 @@
           <t>3458049385</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:21:42</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44079.68173611111</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8154,10 +7960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:20:20</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44079.68078703704</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8229,10 +8033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:58:08</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44079.66537037037</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8300,10 +8102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:56:59</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44079.66457175926</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8371,10 +8171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:53:06</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44079.661875</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8451,10 +8249,8 @@
           <t>3457945517</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:47:45</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44079.65815972222</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8522,10 +8318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:47:12</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44079.65777777778</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8597,10 +8391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:45:10</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44079.65636574074</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8668,10 +8460,8 @@
           <t>3457915222</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:38:01</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44079.65140046296</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8739,10 +8529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:37:30</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44079.65104166666</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8806,10 +8594,8 @@
           <t>3457522506</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:32:05</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44079.64728009259</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8881,10 +8667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:30:08</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44079.64592592593</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8960,10 +8744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:28:06</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44079.64451388889</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9035,10 +8817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:26:59</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44079.64373842593</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9106,10 +8886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:25:56</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44079.64300925926</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9177,10 +8955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:22:15</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44079.64045138889</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9256,10 +9032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:16:21</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44079.63635416667</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9335,10 +9109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:13:43</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44079.63452546296</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9411,10 +9183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:08:03</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44079.63059027777</v>
       </c>
       <c r="I124" t="n">
         <v>3</v>
@@ -9490,10 +9260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-05 15:05:45</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44079.62899305556</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9565,10 +9333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:51:15</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44079.61892361111</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9636,10 +9402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:49:17</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44079.61755787037</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9711,10 +9475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:42:26</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44079.61280092593</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9786,10 +9548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:40:45</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44079.61163194444</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9861,10 +9621,8 @@
           <t>3457725010</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:39:48</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44079.61097222222</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9936,10 +9694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:30:38</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44079.60460648148</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -10007,10 +9763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:30:22</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44079.6044212963</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10082,10 +9836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:29:32</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44079.60384259259</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10161,10 +9913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:25:33</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44079.60107638889</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10236,10 +9986,8 @@
           <t>3457663533</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:22:32</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44079.59898148148</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10303,10 +10051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:22:21</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44079.59885416667</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10374,10 +10120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:22:18</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44079.59881944444</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10437,10 +10181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:21:51</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44079.59850694444</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10514,10 +10256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:19:00</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44079.59652777778</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10589,10 +10329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:18:50</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44079.59641203703</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10664,10 +10402,8 @@
           <t>3457294262</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:14:46</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44079.59358796296</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10731,10 +10467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:12:33</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44079.59204861111</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10806,10 +10540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:12:21</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44079.59190972222</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10877,10 +10609,8 @@
           <t>3457618635</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:09:24</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44079.58986111111</v>
       </c>
       <c r="I144" t="n">
         <v>5</v>
@@ -10952,10 +10682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:08:08</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44079.58898148148</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11031,10 +10759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:05:17</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44079.58700231482</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11102,10 +10828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:04:42</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44079.58659722222</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -11182,10 +10906,8 @@
           <t>3457253092</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:04:39</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44079.5865625</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11253,10 +10975,8 @@
           <t>3457600938</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:02:49</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44079.58528935185</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11320,10 +11040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:02:31</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44079.58508101852</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11387,10 +11105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:01:53</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44079.58464120371</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11458,10 +11174,8 @@
           <t>3457224965</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:01:12</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44079.58416666667</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11533,10 +11247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:00:44</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44079.58384259259</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11604,10 +11316,8 @@
           <t>3457588469</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:00:44</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44079.58384259259</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11675,10 +11385,8 @@
           <t>3457595751</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:00:10</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44079.58344907407</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11746,10 +11454,8 @@
           <t>3457304855</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:56:01</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44079.58056712963</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11817,10 +11523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:55:49</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44079.58042824074</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11884,10 +11588,8 @@
           <t>3457575848</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:55:42</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44079.58034722223</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11959,10 +11661,8 @@
           <t>3457580072</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:55:10</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44079.57997685186</v>
       </c>
       <c r="I159" t="n">
         <v>10</v>
@@ -12030,10 +11730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:54:18</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44079.579375</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12101,10 +11799,8 @@
           <t>3457569165</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:54:16</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44079.57935185185</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12172,10 +11868,8 @@
           <t>3457557079</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:51:11</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44079.57721064815</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12243,10 +11937,8 @@
           <t>3457565362</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:51:10</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44079.57719907408</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12314,10 +12006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:50:47</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44079.57693287037</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12385,10 +12075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:50:38</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44079.57682870371</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12452,10 +12140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:50:12</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44079.57652777778</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12523,10 +12209,8 @@
           <t>3457344955</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:49:45</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44079.57621527778</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12602,10 +12286,8 @@
           <t>3457543479</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:48:20</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44079.57523148148</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12673,10 +12355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:48:07</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44079.57508101852</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12744,10 +12424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:46:56</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44079.57425925926</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12815,10 +12493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:45:32</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44079.57328703703</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12882,10 +12558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:45:04</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44079.57296296296</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12961,10 +12635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:44:22</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44079.57247685185</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13040,10 +12712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:44:01</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44079.57223379629</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13107,10 +12777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:41:23</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44079.57040509259</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13174,10 +12842,8 @@
           <t>3457304888</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:41:05</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44079.57019675926</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13245,10 +12911,8 @@
           <t>3457522506</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:40:26</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44079.56974537037</v>
       </c>
       <c r="I177" t="n">
         <v>7</v>
@@ -13324,10 +12988,8 @@
           <t>3457509425</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:37:58</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44079.56803240741</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13403,10 +13065,8 @@
           <t>3457304855</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:37:45</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44079.56788194444</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13474,10 +13134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:33:18</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44079.56479166666</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13549,10 +13207,8 @@
           <t>3457493126</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:32:56</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44079.56453703704</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13629,10 +13285,8 @@
           <t>3457294262</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:32:53</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44079.56450231482</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13704,10 +13358,8 @@
           <t>3457483965</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:32:34</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44079.56428240741</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13771,10 +13423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:30:18</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44079.56270833333</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13842,10 +13492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:29:24</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44079.56208333333</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13913,10 +13561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:29:11</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44079.56193287037</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13988,10 +13634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:28:27</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44079.56142361111</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14059,10 +13703,8 @@
           <t>3457467901</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:27:58</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44079.56108796296</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14130,10 +13772,8 @@
           <t>3457458929</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:25:32</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44079.55939814815</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14193,10 +13833,8 @@
           <t>3457178881</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:22:09</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44079.55704861111</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14272,10 +13910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:21:23</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44079.5565162037</v>
       </c>
       <c r="I191" t="n">
         <v>2</v>
@@ -14347,10 +13983,8 @@
           <t>3457438652</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:20:59</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44079.55623842592</v>
       </c>
       <c r="I192" t="n">
         <v>11</v>
@@ -14414,10 +14048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:20:58</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44079.55622685186</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14481,10 +14113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:20:47</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44079.55609953704</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14552,10 +14182,8 @@
           <t>3457294262</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:20:27</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44079.55586805556</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14632,10 +14260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:18:26</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44079.55446759259</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14703,10 +14329,8 @@
           <t>3457353785</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:18:16</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44079.55435185185</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14778,10 +14402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:17:35</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44079.55387731481</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14849,10 +14471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:16:48</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44079.55333333334</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14920,10 +14540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:16:31</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44079.55313657408</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14987,10 +14605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:16:18</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44079.55298611111</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15058,10 +14674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:16:01</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44079.55278935185</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15129,10 +14743,8 @@
           <t>3457430745</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:15:44</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44079.55259259259</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15208,10 +14820,8 @@
           <t>3457178881</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:15:20</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44079.55231481481</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15287,10 +14897,8 @@
           <t>3457294262</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:14:44</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44079.55189814815</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15366,10 +14974,8 @@
           <t>3457130609</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:14:40</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44079.55185185185</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15446,10 +15052,8 @@
           <t>3457419315</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:14:36</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44079.55180555556</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15525,10 +15129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:13:58</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44079.55136574074</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15596,10 +15198,8 @@
           <t>3457330155</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:13:02</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44079.5507175926</v>
       </c>
       <c r="I209" t="n">
         <v>10</v>
@@ -15667,10 +15267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:08:31</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44079.54758101852</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15746,10 +15344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:08:01</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44079.54723379629</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15826,10 +15422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:07:22</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44079.54678240741</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15901,10 +15495,8 @@
           <t>3457384542</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:07:12</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44079.54666666667</v>
       </c>
       <c r="I213" t="n">
         <v>8</v>
@@ -15976,10 +15568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:05:08</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44079.54523148148</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16047,10 +15637,8 @@
           <t>3457381487</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:05:05</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44079.54519675926</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16126,10 +15714,8 @@
           <t>3457380538</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:04:24</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44079.54472222222</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16194,10 +15780,8 @@
           <t>3457369770</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:03:54</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44079.544375</v>
       </c>
       <c r="I217" t="n">
         <v>3</v>
@@ -16261,10 +15845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:02:56</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44079.5437037037</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16336,10 +15918,8 @@
           <t>3457122245</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:02:47</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44079.54359953704</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16411,10 +15991,8 @@
           <t>3457304855</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:01:55</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44079.54299768519</v>
       </c>
       <c r="I220" t="n">
         <v>2</v>
@@ -16486,10 +16064,8 @@
           <t>3457353785</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:59:30</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44079.54131944444</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16565,10 +16141,8 @@
           <t>3457122245</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:59:02</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44079.54099537037</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16644,10 +16218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:58:49</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44079.54084490741</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -16715,10 +16287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:58:10</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44079.54039351852</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16797,10 +16367,8 @@
           <t>3457114355</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:56:55</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44079.53952546296</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16876,10 +16444,8 @@
           <t>3457344955</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:56:52</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44079.53949074074</v>
       </c>
       <c r="I226" t="n">
         <v>27</v>
@@ -16939,10 +16505,8 @@
           <t>3457255126</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:56:23</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44079.53915509259</v>
       </c>
       <c r="I227" t="n">
         <v>6</v>
@@ -17018,10 +16582,8 @@
           <t>3457178881</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:56:07</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44079.53896990741</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17089,10 +16651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:55:44</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44079.53870370371</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17156,10 +16716,8 @@
           <t>3457333954</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:55:24</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44079.53847222222</v>
       </c>
       <c r="I230" t="n">
         <v>43</v>
@@ -17227,10 +16785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:55:13</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44079.53834490741</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17302,10 +16858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:55:05</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44079.53825231481</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17377,10 +16931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:54:25</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44079.53778935185</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17448,10 +17000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:53:28</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44079.53712962963</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17523,10 +17073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:53:05</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44079.53686342593</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17598,10 +17146,8 @@
           <t>3457329176</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:52:47</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44079.53665509259</v>
       </c>
       <c r="I236" t="n">
         <v>2</v>
@@ -17677,10 +17223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:52:45</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44079.53663194444</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17756,10 +17300,8 @@
           <t>3457330155</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:52:31</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44079.53646990741</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17831,10 +17373,8 @@
           <t>3457323333</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:51:53</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44079.53603009259</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17906,10 +17446,8 @@
           <t>3457304888</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:51:49</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44079.5359837963</v>
       </c>
       <c r="I240" t="n">
         <v>2</v>
@@ -17985,10 +17523,8 @@
           <t>3457327163</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:51:19</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44079.53563657407</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18048,10 +17584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:51:03</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44079.53545138889</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18119,10 +17653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:50:57</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44079.53538194444</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18198,10 +17730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:50:23</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44079.53498842593</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18277,10 +17807,8 @@
           <t>3457320421</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:49:47</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44079.53457175926</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18352,10 +17880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:49:43</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44079.53452546296</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18427,10 +17953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:49:40</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44079.53449074074</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18494,10 +18018,8 @@
           <t>3457178881</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:49:07</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44079.5341087963</v>
       </c>
       <c r="I248" t="n">
         <v>39</v>
@@ -18565,10 +18087,8 @@
           <t>3457304888</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:48:33</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44079.53371527778</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18636,10 +18156,8 @@
           <t>3457304855</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:48:32</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44079.5337037037</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18715,10 +18233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:48:01</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44079.53334490741</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18782,10 +18298,8 @@
           <t>3457312176</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:47:45</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44079.53315972222</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18861,10 +18375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:47:39</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44079.53309027778</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18932,10 +18444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:47:06</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44079.53270833333</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18999,10 +18509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:46:25</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44079.53223379629</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19066,10 +18574,8 @@
           <t>3457305250</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:46:02</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44079.53196759259</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19137,10 +18643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:45:39</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44079.53170138889</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19204,10 +18708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:45:26</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44079.53155092592</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19275,10 +18777,8 @@
           <t>3457294262</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:45:18</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44079.53145833333</v>
       </c>
       <c r="I259" t="n">
         <v>44</v>
@@ -19354,10 +18854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:45:14</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44079.53141203704</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19425,10 +18923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:45:12</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44079.53138888889</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19505,10 +19001,8 @@
           <t>3457298228</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:44:53</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44079.53116898148</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19580,10 +19074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:44:44</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44079.53106481482</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19655,10 +19147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:44:06</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44079.530625</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19730,10 +19220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:42:03</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44079.52920138889</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19809,10 +19297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:41:32</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44079.52884259259</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19880,10 +19366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:40:56</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44079.52842592593</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19955,10 +19439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:40:53</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44079.5283912037</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20026,10 +19508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:40:28</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44079.52810185185</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20089,10 +19569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:39:59</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44079.5277662037</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20156,10 +19634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:39:19</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44079.52730324074</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20223,10 +19699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:37:13</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44079.52584490741</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20299,10 +19773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:36:22</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44079.52525462963</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20370,10 +19842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:36:02</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44079.52502314815</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20449,10 +19919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:35:47</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44079.52484953704</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20524,10 +19992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:35:23</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44079.52457175926</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20591,10 +20057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:35:13</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44079.52445601852</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20666,10 +20130,8 @@
           <t>3457249211</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:34:17</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44079.52380787037</v>
       </c>
       <c r="I278" t="n">
         <v>2</v>
@@ -20741,10 +20203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:34:10</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44079.52372685185</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20817,10 +20277,8 @@
           <t>3457253092</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:34:09</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44079.52371527778</v>
       </c>
       <c r="I280" t="n">
         <v>58</v>
@@ -20884,10 +20342,8 @@
           <t>3457255126</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:33:37</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44079.52334490741</v>
       </c>
       <c r="I281" t="n">
         <v>3</v>
@@ -20955,10 +20411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:33:36</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44079.52333333333</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21034,10 +20488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:33:20</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44079.52314814815</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21113,10 +20565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:32:49</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44079.52278935185</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21176,10 +20626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:32:22</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44079.52247685185</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21251,10 +20699,8 @@
           <t>3457250552</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:32:20</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44079.52245370371</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21318,10 +20764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:32:08</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44079.52231481481</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21389,10 +20833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:30:50</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44079.52141203704</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21464,10 +20906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:30:48</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44079.52138888889</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21539,10 +20979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:30:12</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44079.52097222222</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21606,10 +21044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:30:03</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44079.52086805556</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21685,10 +21121,8 @@
           <t>3457122245</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:30:00</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44079.52083333334</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21752,10 +21186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:29:52</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44079.52074074074</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21823,10 +21255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:29:11</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44079.5202662037</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21898,10 +21328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:29:05</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44079.52019675926</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -21973,10 +21401,8 @@
           <t>3457228470</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:28:38</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44079.51988425926</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22052,10 +21478,8 @@
           <t>3457224965</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:28:20</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44079.51967592593</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22123,10 +21547,8 @@
           <t>3457227427</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:27:50</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44079.5193287037</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22194,10 +21616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:27:49</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44079.51931712963</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22261,10 +21681,8 @@
           <t>3457222953</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:26:51</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44079.51864583333</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22336,10 +21754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:26:49</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44079.51862268519</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22411,10 +21827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:26:42</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44079.51854166666</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22482,10 +21896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:26:35</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44079.51846064815</v>
       </c>
       <c r="I303" t="n">
         <v>2</v>
@@ -22561,10 +21973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:26:01</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44079.51806712963</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22640,10 +22050,8 @@
           <t>3457214819</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:25:51</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44079.51795138889</v>
       </c>
       <c r="I305" t="n">
         <v>6</v>
@@ -22719,10 +22127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:25:37</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44079.51778935185</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22790,10 +22196,8 @@
           <t>3457216200</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:24:37</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44079.51709490741</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22869,10 +22273,8 @@
           <t>3457212742</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:24:18</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44079.516875</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22941,10 +22343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:24:13</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44079.51681712963</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23016,10 +22416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:24:09</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44079.51677083333</v>
       </c>
       <c r="I310" t="n">
         <v>55</v>
@@ -23087,10 +22485,8 @@
           <t>3457212276</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:23:58</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44079.51664351852</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23162,10 +22558,8 @@
           <t>3457203689</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:22:46</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44079.51581018518</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23237,10 +22631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:22:44</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44079.51578703704</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23316,10 +22708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:22:33</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44079.51565972222</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23383,10 +22773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:22:13</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44079.51542824074</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23450,10 +22838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:21:50</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44079.51516203704</v>
       </c>
       <c r="I316" t="n">
         <v>163</v>
@@ -23521,10 +22907,8 @@
           <t>3457199269</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:21:41</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44079.51505787037</v>
       </c>
       <c r="I317" t="n">
         <v>9</v>
@@ -23600,10 +22984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:21:41</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44079.51505787037</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23667,10 +23049,8 @@
           <t>3457122245</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:21:16</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44079.51476851852</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23746,10 +23126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:21:12</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44079.51472222222</v>
       </c>
       <c r="I320" t="n">
         <v>9</v>
@@ -23828,10 +23206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:21:00</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44079.51458333333</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23903,10 +23279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:20:50</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44079.51446759259</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23982,10 +23356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:20:34</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44079.51428240741</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -24061,10 +23433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:20:34</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44079.51428240741</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24136,10 +23506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:20:28</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44079.51421296296</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24211,10 +23579,8 @@
           <t>3457193703</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:20:11</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44079.51401620371</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24282,10 +23648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:20:08</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44079.51398148148</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24361,10 +23725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:19:30</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44079.51354166667</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24436,10 +23798,8 @@
           <t>3457184974</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:19:27</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44079.51350694444</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24511,10 +23871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:19:19</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44079.51341435185</v>
       </c>
       <c r="I330" t="n">
         <v>2</v>
@@ -24582,10 +23940,8 @@
           <t>3457184987</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:18:26</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44079.51280092593</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24657,10 +24013,8 @@
           <t>3457184974</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:18:26</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44079.51280092593</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24732,10 +24086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:18:23</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44079.5127662037</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24807,10 +24159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:18:18</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44079.51270833334</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24878,10 +24228,8 @@
           <t>3457130609</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:18:01</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44079.51251157407</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24958,10 +24306,8 @@
           <t>3457130609</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:17:50</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44079.51238425926</v>
       </c>
       <c r="I336" t="n">
         <v>2</v>
@@ -25037,10 +24383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:17:41</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44079.51228009259</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25121,10 +24465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:17:27</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44079.51211805556</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25200,10 +24542,8 @@
           <t>3457186128</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:17:04</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44079.51185185185</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25267,10 +24607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:16:55</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44079.51174768519</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25342,10 +24680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:16:52</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44079.51171296297</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25417,10 +24753,8 @@
           <t>3457178881</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:16:42</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44079.51159722222</v>
       </c>
       <c r="I342" t="n">
         <v>68</v>
@@ -25484,10 +24818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:16:23</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44079.51137731481</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25555,10 +24887,8 @@
           <t>3457177997</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:16:05</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44079.51116898148</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25626,10 +24956,8 @@
           <t>3457177682</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:15:51</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44079.51100694444</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25710,10 +25038,8 @@
           <t>3457174234</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:15:38</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44079.51085648148</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25785,10 +25111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:15:24</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44079.51069444444</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25860,10 +25184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:15:06</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44079.51048611111</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25927,10 +25249,8 @@
           <t>3457122245</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:14:50</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44079.51030092593</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25998,10 +25318,8 @@
           <t>3457169572</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:14:21</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44079.50996527778</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26077,10 +25395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:14:07</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44079.50980324074</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26148,10 +25464,8 @@
           <t>3457169263</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:14:06</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44079.50979166666</v>
       </c>
       <c r="I352" t="n">
         <v>131</v>
@@ -26227,10 +25541,8 @@
           <t>3457169063</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:13:57</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44079.5096875</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26306,10 +25618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:13:41</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44079.50950231482</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26385,10 +25695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:13:35</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44079.50943287037</v>
       </c>
       <c r="I355" t="n">
         <v>4</v>
@@ -26448,10 +25756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:13:28</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44079.50935185186</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26511,10 +25817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:13:25</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44079.50931712963</v>
       </c>
       <c r="I357" t="n">
         <v>37</v>
@@ -26586,10 +25890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:13:19</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44079.50924768519</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26665,10 +25967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:13:18</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44079.50923611111</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26740,10 +26040,8 @@
           <t>3457122245</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:13:16</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44079.50921296296</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26819,10 +26117,8 @@
           <t>3457163375</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:12:42</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44079.50881944445</v>
       </c>
       <c r="I361" t="n">
         <v>5</v>
@@ -26898,10 +26194,8 @@
           <t>3457127023</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:12:38</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44079.50877314815</v>
       </c>
       <c r="I362" t="n">
         <v>10</v>
@@ -26969,10 +26263,8 @@
           <t>3457162815</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:12:19</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44079.50855324074</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -27048,10 +26340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:12:11</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44079.50846064815</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27119,10 +26409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:12:05</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44079.5083912037</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -27190,10 +26478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:12:01</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44079.50834490741</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27269,10 +26555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:11:54</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44079.50826388889</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27344,10 +26628,8 @@
           <t>3457162208</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:11:53</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44079.50825231482</v>
       </c>
       <c r="I368" t="n">
         <v>45</v>
@@ -27419,10 +26701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:11:28</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44079.50796296296</v>
       </c>
       <c r="I369" t="n">
         <v>2</v>
@@ -27498,10 +26778,8 @@
           <t>3457161263</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:11:15</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44079.5078125</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27573,10 +26851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:11:10</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44079.50775462963</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27652,10 +26928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:11:10</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44079.50775462963</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27723,10 +26997,8 @@
           <t>3457165362</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:11:07</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44079.50771990741</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27803,10 +27075,8 @@
           <t>3457161030</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:11:05</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44079.50769675926</v>
       </c>
       <c r="I374" t="n">
         <v>6</v>
@@ -27878,10 +27148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:10:54</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44079.50756944445</v>
       </c>
       <c r="I375" t="n">
         <v>12</v>
@@ -27957,10 +27225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:10:53</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44079.50755787037</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28024,10 +27290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:10:50</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44079.50752314815</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28095,10 +27359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:10:39</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44079.50739583333</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28174,10 +27436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:10:26</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44079.50724537037</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28245,10 +27505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:09:57</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44079.50690972222</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28324,10 +27582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:09:51</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44079.50684027778</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28399,10 +27655,8 @@
           <t>3457130609</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:09:51</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44079.50684027778</v>
       </c>
       <c r="I382" t="n">
         <v>11</v>
@@ -28466,10 +27720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:09:48</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44079.50680555555</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28537,10 +27789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:09:32</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44079.50662037037</v>
       </c>
       <c r="I384" t="n">
         <v>58</v>
@@ -28604,10 +27854,8 @@
           <t>3457153096</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:09:29</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44079.50658564815</v>
       </c>
       <c r="I385" t="n">
         <v>3</v>
@@ -28683,10 +27931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:09:21</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44079.50649305555</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28750,10 +27996,8 @@
           <t>3457148347</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:09:12</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44079.50638888889</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28821,10 +28065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:09:09</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44079.50635416667</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28892,10 +28134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:09:05</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44079.50630787037</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28971,10 +28211,8 @@
           <t>3457130609</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:08:48</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44079.50611111111</v>
       </c>
       <c r="I390" t="n">
         <v>2</v>
@@ -29051,10 +28289,8 @@
           <t>3457143221</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:08:45</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44079.50607638889</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29130,10 +28366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:08:40</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44079.50601851852</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29193,10 +28427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:08:39</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44079.50600694444</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29268,10 +28500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:08:36</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44079.50597222222</v>
       </c>
       <c r="I394" t="n">
         <v>10</v>
@@ -29347,10 +28577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:08:34</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44079.50594907408</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29414,10 +28642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:08:14</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44079.50571759259</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29493,10 +28719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:07:50</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44079.50543981481</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29564,10 +28788,8 @@
           <t>3457150774</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:07:47</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44079.50540509259</v>
       </c>
       <c r="I398" t="n">
         <v>3</v>
@@ -29643,10 +28865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:07:43</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44079.5053587963</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29722,10 +28942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:07:43</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44079.5053587963</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29801,10 +29019,8 @@
           <t>3457143221</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:07:37</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44079.50528935185</v>
       </c>
       <c r="I401" t="n">
         <v>2</v>
@@ -29880,10 +29096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:07:36</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44079.50527777777</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29947,10 +29161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:07:36</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44079.50527777777</v>
       </c>
       <c r="I403" t="n">
         <v>3</v>
@@ -30026,10 +29238,8 @@
           <t>3457142383</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:07:19</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44079.50508101852</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30101,10 +29311,8 @@
           <t>3457142635</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:07:12</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44079.505</v>
       </c>
       <c r="I405" t="n">
         <v>9</v>
@@ -30176,10 +29384,8 @@
           <t>3457142597</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:07:10</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44079.50497685185</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30247,10 +29453,8 @@
           <t>3457142383</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:07:01</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44079.50487268518</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30322,10 +29526,8 @@
           <t>3457145104</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:06:56</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44079.50481481481</v>
       </c>
       <c r="I408" t="n">
         <v>2</v>
@@ -30393,10 +29595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:06:46</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44079.50469907407</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30472,10 +29672,8 @@
           <t>3457142044</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:06:46</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44079.50469907407</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30543,10 +29741,8 @@
           <t>3457139167</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:06:37</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44079.5045949074</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30614,10 +29810,8 @@
           <t>3457130609</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:06:34</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44079.50456018518</v>
       </c>
       <c r="I412" t="n">
         <v>65</v>
@@ -30685,10 +29879,8 @@
           <t>3457138288</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:06:00</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44079.50416666667</v>
       </c>
       <c r="I413" t="n">
         <v>2</v>
@@ -30760,10 +29952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:05:24</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44079.50375</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30839,10 +30029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:05:13</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44079.50362268519</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30918,10 +30106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:05:08</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44079.50356481481</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30993,10 +30179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:05:07</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44079.50355324074</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31065,10 +30249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:59</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44079.50346064815</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31136,10 +30318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:39</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44079.50322916666</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31215,10 +30395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:36</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44079.50319444444</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -31282,10 +30460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:36</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44079.50319444444</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31349,10 +30525,8 @@
           <t>3457128906</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:32</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44079.50314814815</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -31429,10 +30603,8 @@
           <t>3457131339</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:20</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44079.50300925926</v>
       </c>
       <c r="I423" t="n">
         <v>7</v>
@@ -31508,10 +30680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:14</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44079.50293981482</v>
       </c>
       <c r="I424" t="n">
         <v>6</v>
@@ -31575,10 +30745,8 @@
           <t>3457131095</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:11</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44079.5029050926</v>
       </c>
       <c r="I425" t="n">
         <v>3</v>
@@ -31650,10 +30818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:09</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44079.50288194444</v>
       </c>
       <c r="I426" t="n">
         <v>18</v>
@@ -31717,10 +30883,8 @@
           <t>3457128299</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:04:05</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44079.50283564815</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31797,10 +30961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:55</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44079.50271990741</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31876,10 +31038,8 @@
           <t>3457130609</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:52</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44079.50268518519</v>
       </c>
       <c r="I429" t="n">
         <v>2</v>
@@ -31956,10 +31116,8 @@
           <t>3457127783</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:43</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44079.50258101852</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32035,10 +31193,8 @@
           <t>3457127655</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:37</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44079.50251157407</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -32110,10 +31266,8 @@
           <t>3457124824</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:22</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44079.50233796296</v>
       </c>
       <c r="I432" t="n">
         <v>9</v>
@@ -32186,10 +31340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:20</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44079.50231481482</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32266,10 +31418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:20</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44079.50231481482</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32333,10 +31483,8 @@
           <t>3457127081</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:13</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44079.50223379629</v>
       </c>
       <c r="I435" t="n">
         <v>39</v>
@@ -32412,10 +31560,8 @@
           <t>3457127023</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:10</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44079.50219907407</v>
       </c>
       <c r="I436" t="n">
         <v>9</v>
@@ -32483,10 +31629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:07</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44079.50216435185</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32558,10 +31702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:03</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44079.50211805556</v>
       </c>
       <c r="I438" t="n">
         <v>169</v>
@@ -32629,10 +31771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:03:02</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44079.50210648148</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32705,10 +31845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:56</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44079.50203703704</v>
       </c>
       <c r="I440" t="n">
         <v>299</v>
@@ -32777,10 +31915,8 @@
           <t>3457123730</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:38</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44079.5018287037</v>
       </c>
       <c r="I441" t="n">
         <v>37</v>
@@ -32852,10 +31988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:38</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44079.5018287037</v>
       </c>
       <c r="I442" t="n">
         <v>1</v>
@@ -32919,10 +32053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:16</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44079.50157407407</v>
       </c>
       <c r="I443" t="n">
         <v>28</v>
@@ -32999,10 +32131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:16</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44079.50157407407</v>
       </c>
       <c r="I444" t="n">
         <v>339</v>
@@ -33078,10 +32208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:14</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44079.50155092592</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33153,10 +32281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:12</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44079.50152777778</v>
       </c>
       <c r="I446" t="n">
         <v>385</v>
@@ -33232,10 +32358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:02:07</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44079.50146990741</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33303,10 +32427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:57</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44079.50135416666</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33374,10 +32496,8 @@
           <t>3457117612</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:53</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44079.50130787037</v>
       </c>
       <c r="I449" t="n">
         <v>1</v>
@@ -33445,10 +32565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:49</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44079.50126157407</v>
       </c>
       <c r="I450" t="n">
         <v>53</v>
@@ -33516,10 +32634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:42</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44079.50118055556</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33588,10 +32704,8 @@
           <t>3457122245</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:41</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44079.50116898148</v>
       </c>
       <c r="I452" t="n">
         <v>37</v>
@@ -33663,10 +32777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:39</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44079.50114583333</v>
       </c>
       <c r="I453" t="n">
         <v>4</v>
@@ -33734,10 +32846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:33</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44079.50107638889</v>
       </c>
       <c r="I454" t="n">
         <v>134</v>
@@ -33809,10 +32919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:27</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44079.50100694445</v>
       </c>
       <c r="I455" t="n">
         <v>203</v>
@@ -33880,10 +32988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:27</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44079.50100694445</v>
       </c>
       <c r="I456" t="n">
         <v>7</v>
@@ -33955,10 +33061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:23</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44079.50096064815</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -34034,10 +33138,8 @@
           <t>3457114355</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:23</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44079.50096064815</v>
       </c>
       <c r="I458" t="n">
         <v>3</v>
@@ -34101,10 +33203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:06</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44079.50076388889</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34181,10 +33281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:06</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44079.50076388889</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34252,10 +33350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:02</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44079.50071759259</v>
       </c>
       <c r="I461" t="n">
         <v>789</v>
@@ -34327,10 +33423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:02</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44079.50071759259</v>
       </c>
       <c r="I462" t="n">
         <v>2</v>
@@ -34402,10 +33496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:01:01</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44079.50070601852</v>
       </c>
       <c r="I463" t="n">
         <v>2</v>
@@ -34473,10 +33565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:56</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44079.50064814815</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34548,10 +33638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:56</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44079.50064814815</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34627,10 +33715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:53</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44079.50061342592</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34694,10 +33780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:53</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44079.50061342592</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34761,10 +33845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:52</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44079.50060185185</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34836,10 +33918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:49</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44079.50056712963</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -34913,10 +33993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:49</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44079.50056712963</v>
       </c>
       <c r="I470" t="n">
         <v>1</v>
@@ -34980,10 +34058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:49</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44079.50056712963</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35060,10 +34136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:36</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44079.50041666667</v>
       </c>
       <c r="I472" t="n">
         <v>1292</v>
@@ -35139,10 +34213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:00:26</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44079.50030092592</v>
       </c>
       <c r="I473" t="n">
         <v>1</v>
